--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_13-50.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_13-50.xlsx
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>8:0</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
   </si>
   <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
@@ -1282,13 +1285,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1308,51 +1311,77 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="26.25" customHeight="1">
-      <c r="K27" s="10">
-        <v>1556.04</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="11">
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c t="s" r="B27" s="7">
         <v>45</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c t="s" r="F28" s="12">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c t="s" r="H27" s="8">
+        <v>14</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9">
+        <v>30</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c t="s" r="N27" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="K28" s="10">
+        <v>1596.04</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1">
+      <c t="s" r="A29" s="11">
         <v>46</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c t="s" r="I28" s="14">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c t="s" r="F29" s="12">
         <v>47</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c t="s" r="I29" s="14">
+        <v>48</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="83">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1429,10 +1458,13 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:N29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
